--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2737109.802708388</v>
+        <v>-2740020.553726428</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67.2969428161521</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>105.8002800526865</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>153.771409420387</v>
+        <v>153.7714094203874</v>
       </c>
       <c r="T2" t="n">
-        <v>212.4825304253033</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109.1545841063048</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>19.61575307735247</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.5876841475045</v>
       </c>
       <c r="T3" t="n">
         <v>194.9359795772607</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8560379713302</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>154.6603858641035</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>128.392988723566</v>
+        <v>128.3929887235663</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>223.2987658845707</v>
       </c>
       <c r="U4" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="V4" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>120.3624652902321</v>
       </c>
       <c r="X4" t="n">
-        <v>120.3624652902402</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25.67913628361545</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>72.36698404190659</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>100.0772551557907</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>191.2696694406318</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.693472523613</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.63579206135103</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>145.7818465999111</v>
+        <v>265.6962952122121</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>7.397837941417693</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>5.737817290570373</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>127.9409606477172</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0.9312945272739542</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.4643665640119</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065892</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541834</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972057</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002287</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652582</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>126.9478391631351</v>
+        <v>88.05557932825153</v>
       </c>
       <c r="C2" t="n">
-        <v>126.9478391631351</v>
+        <v>88.05557932825153</v>
       </c>
       <c r="D2" t="n">
-        <v>126.9478391631351</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="E2" t="n">
-        <v>126.9478391631351</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="F2" t="n">
-        <v>126.9478391631351</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="G2" t="n">
-        <v>126.9478391631351</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="H2" t="n">
-        <v>126.9478391631351</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="I2" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="J2" t="n">
-        <v>44.56341783364451</v>
+        <v>44.5634178336428</v>
       </c>
       <c r="K2" t="n">
-        <v>131.9979271978333</v>
+        <v>131.9979271978299</v>
       </c>
       <c r="L2" t="n">
-        <v>277.369929410237</v>
+        <v>277.3699294102314</v>
       </c>
       <c r="M2" t="n">
-        <v>470.7937295017331</v>
+        <v>470.793729501725</v>
       </c>
       <c r="N2" t="n">
-        <v>671.9611372758999</v>
+        <v>671.961137275889</v>
       </c>
       <c r="O2" t="n">
-        <v>848.5825547535119</v>
+        <v>848.5825547534987</v>
       </c>
       <c r="P2" t="n">
-        <v>964.8238474307868</v>
+        <v>964.823847430772</v>
       </c>
       <c r="Q2" t="n">
-        <v>1003.943470647335</v>
+        <v>1003.943470647319</v>
       </c>
       <c r="R2" t="n">
-        <v>1003.943470647335</v>
+        <v>1003.943470647319</v>
       </c>
       <c r="S2" t="n">
-        <v>848.6188146671461</v>
+        <v>848.6188146671295</v>
       </c>
       <c r="T2" t="n">
-        <v>633.9899960557286</v>
+        <v>848.6188146671295</v>
       </c>
       <c r="U2" t="n">
-        <v>633.9899960557286</v>
+        <v>848.6188146671295</v>
       </c>
       <c r="V2" t="n">
-        <v>380.4689176094319</v>
+        <v>595.0977362208369</v>
       </c>
       <c r="W2" t="n">
-        <v>380.4689176094319</v>
+        <v>595.0977362208369</v>
       </c>
       <c r="X2" t="n">
-        <v>380.4689176094319</v>
+        <v>341.5766577745442</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.4689176094319</v>
+        <v>341.5766577745442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.3360250758809</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="C3" t="n">
-        <v>130.3360250758809</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="D3" t="n">
-        <v>130.3360250758809</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="F3" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="G3" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="H3" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="I3" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="J3" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="K3" t="n">
-        <v>90.99537442422604</v>
+        <v>90.99537442422451</v>
       </c>
       <c r="L3" t="n">
-        <v>232.6739082073343</v>
+        <v>232.6739082073312</v>
       </c>
       <c r="M3" t="n">
-        <v>417.3629427597682</v>
+        <v>417.3629427597631</v>
       </c>
       <c r="N3" t="n">
-        <v>621.3487914131783</v>
+        <v>621.3487914131713</v>
       </c>
       <c r="O3" t="n">
-        <v>785.7361958620606</v>
+        <v>785.7361958620518</v>
       </c>
       <c r="P3" t="n">
-        <v>898.3385143385906</v>
+        <v>898.3385143385802</v>
       </c>
       <c r="Q3" t="n">
-        <v>1003.943470647335</v>
+        <v>1003.943470647319</v>
       </c>
       <c r="R3" t="n">
-        <v>984.1295786500093</v>
+        <v>1003.943470647319</v>
       </c>
       <c r="S3" t="n">
-        <v>984.1295786500093</v>
+        <v>854.8650018114556</v>
       </c>
       <c r="T3" t="n">
-        <v>787.2245487739884</v>
+        <v>657.9599719354346</v>
       </c>
       <c r="U3" t="n">
-        <v>787.2245487739884</v>
+        <v>429.8225598431819</v>
       </c>
       <c r="V3" t="n">
-        <v>552.0724405422457</v>
+        <v>429.8225598431819</v>
       </c>
       <c r="W3" t="n">
-        <v>298.5513620959489</v>
+        <v>176.3014813968893</v>
       </c>
       <c r="X3" t="n">
-        <v>298.5513620959489</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="Y3" t="n">
-        <v>298.5513620959489</v>
+        <v>20.07886941294637</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="C4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="D4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="F4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="G4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="H4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="I4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="J4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="K4" t="n">
-        <v>91.23722867620091</v>
+        <v>91.23722867618969</v>
       </c>
       <c r="L4" t="n">
-        <v>278.6241424318034</v>
+        <v>278.6241424317912</v>
       </c>
       <c r="M4" t="n">
-        <v>486.5864924975646</v>
+        <v>486.5864924975514</v>
       </c>
       <c r="N4" t="n">
-        <v>695.0385791193225</v>
+        <v>695.0385791193085</v>
       </c>
       <c r="O4" t="n">
-        <v>871.5615245479228</v>
+        <v>871.5615245479078</v>
       </c>
       <c r="P4" t="n">
-        <v>999.0867174143657</v>
+        <v>999.0867174143499</v>
       </c>
       <c r="Q4" t="n">
-        <v>1003.943470647335</v>
+        <v>1003.943470647319</v>
       </c>
       <c r="R4" t="n">
-        <v>874.2535830477734</v>
+        <v>874.2535830477568</v>
       </c>
       <c r="S4" t="n">
-        <v>874.2535830477734</v>
+        <v>874.2535830477568</v>
       </c>
       <c r="T4" t="n">
-        <v>648.6992740734596</v>
+        <v>648.6992740734429</v>
       </c>
       <c r="U4" t="n">
-        <v>395.1781956271628</v>
+        <v>395.1781956271502</v>
       </c>
       <c r="V4" t="n">
-        <v>141.6571171808661</v>
+        <v>141.6571171808576</v>
       </c>
       <c r="W4" t="n">
-        <v>141.6571171808661</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="X4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.0788694129467</v>
+        <v>20.07886941294637</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151033</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151033</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>320.3587892151033</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411523</v>
       </c>
       <c r="U5" t="n">
-        <v>646.8597007358178</v>
+        <v>586.7364457822812</v>
       </c>
       <c r="V5" t="n">
-        <v>573.7617370571243</v>
+        <v>586.7364457822812</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>320.3587892151033</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151033</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>320.3587892151033</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>122.1852469211212</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>122.1852469211212</v>
       </c>
       <c r="D6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742757</v>
+        <v>611.5747118810656</v>
       </c>
       <c r="V6" t="n">
-        <v>436.7089093706072</v>
+        <v>376.4226036493229</v>
       </c>
       <c r="W6" t="n">
-        <v>436.7089093706072</v>
+        <v>122.1852469211212</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>122.1852469211212</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>122.1852469211212</v>
       </c>
     </row>
     <row r="7">
@@ -4726,46 +4726,46 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227043</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>943.0439315983347</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>736.256897008846</v>
+        <v>848.0684854165356</v>
       </c>
       <c r="T7" t="n">
-        <v>736.256897008846</v>
+        <v>622.5994491745499</v>
       </c>
       <c r="U7" t="n">
-        <v>469.8792404416679</v>
+        <v>356.221792607372</v>
       </c>
       <c r="V7" t="n">
-        <v>469.8792404416679</v>
+        <v>101.5373044014852</v>
       </c>
       <c r="W7" t="n">
-        <v>469.8792404416679</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X7" t="n">
-        <v>241.8896895436506</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y7" t="n">
         <v>21.09711040012049</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321241</v>
       </c>
       <c r="C8" t="n">
-        <v>692.5532710454995</v>
+        <v>1171.944675321241</v>
       </c>
       <c r="D8" t="n">
-        <v>692.5532710454995</v>
+        <v>813.6789767144903</v>
       </c>
       <c r="E8" t="n">
-        <v>692.5532710454995</v>
+        <v>813.6789767144903</v>
       </c>
       <c r="F8" t="n">
-        <v>685.6077702962961</v>
+        <v>806.7334759652869</v>
       </c>
       <c r="G8" t="n">
-        <v>269.5767249997033</v>
+        <v>390.7024306686941</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961723</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="W8" t="n">
-        <v>1451.655119961723</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="X8" t="n">
-        <v>1451.655119961723</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="Y8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321241</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.4666540631124</v>
+        <v>533.4666540631165</v>
       </c>
       <c r="C9" t="n">
-        <v>359.0136247819854</v>
+        <v>359.0136247819895</v>
       </c>
       <c r="D9" t="n">
-        <v>359.0136247819854</v>
+        <v>210.0792151207382</v>
       </c>
       <c r="E9" t="n">
-        <v>359.0136247819854</v>
+        <v>50.84176011528274</v>
       </c>
       <c r="F9" t="n">
-        <v>212.4790668088704</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>75.6030730239863</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.295032556957</v>
+        <v>1853.295032556961</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059888</v>
+        <v>2154.745546059892</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2029.495166406375</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>1834.784844880351</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>1606.683255013616</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781869</v>
+        <v>1371.531146781873</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053667</v>
+        <v>1117.293790053671</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481344</v>
+        <v>909.4422898481384</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.6819910831805</v>
+        <v>701.6819910831846</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174231</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>213.7203003246709</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>467.624070672889</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>745.7191196640795</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1022.63630638511</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1262.397853152954</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1444.034594271088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465729</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1247.957588882176</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="T10" t="n">
-        <v>1024.3537315748</v>
+        <v>1287.175893077875</v>
       </c>
       <c r="U10" t="n">
-        <v>735.2274105488234</v>
+        <v>998.0495720518986</v>
       </c>
       <c r="V10" t="n">
-        <v>735.2274105488234</v>
+        <v>743.3650838460118</v>
       </c>
       <c r="W10" t="n">
-        <v>445.8102405118628</v>
+        <v>453.9479138090512</v>
       </c>
       <c r="X10" t="n">
-        <v>445.8102405118628</v>
+        <v>225.9583629110338</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.0176613683328</v>
+        <v>225.0176613683329</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
         <v>680.0291294438176</v>
@@ -5416,22 +5416,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5835,10 +5835,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C28" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6549,7 +6549,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,61 +6689,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,7 +6962,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,67 +7069,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,7 +7166,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7178,16 +7178,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,19 +7360,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,19 +7482,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7673,22 +7673,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745235</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7795,16 +7795,16 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>63.28652962351899</v>
+        <v>63.28652962351987</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>4.277795609670648</v>
+        <v>4.277795609671372</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.06311598533966</v>
+        <v>81.06311598533466</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>74.53633578495973</v>
+        <v>74.53633578494946</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127288</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>182.3656402706166</v>
+        <v>182.3656402706171</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.7479740016468</v>
+        <v>131.7479740016509</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>287.3860988045309</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>281.342345626551</v>
+        <v>408.710069359885</v>
       </c>
       <c r="H2" t="n">
-        <v>314.6447268146768</v>
+        <v>314.644726814677</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>76.76639080830114</v>
+        <v>76.7663908083052</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>118.7452330166393</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>48.49049634909613</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9034249120584</v>
       </c>
       <c r="H4" t="n">
-        <v>152.5578247930796</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.0634900937945</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>35.27384054303937</v>
       </c>
       <c r="V4" t="n">
-        <v>1.151775661994236</v>
+        <v>1.1517756619983</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>166.1605330463589</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788571</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808289</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>15.00954930701843</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1.791604029957528e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>665264.5711858278</v>
+        <v>665264.5711858231</v>
       </c>
       <c r="C3" t="n">
-        <v>14089.18501680896</v>
+        <v>14089.18501681326</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599825</v>
+        <v>291724.180959984</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.207574264</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.654869427746674e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>85096.66435214462</v>
+        <v>85096.66435214353</v>
       </c>
       <c r="K3" t="n">
-        <v>3275.7830798368</v>
+        <v>3275.783079837948</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932021</v>
+        <v>70460.80690932035</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515978</v>
       </c>
       <c r="N3" t="n">
-        <v>4.075954899266874e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156183.7348407058</v>
+        <v>156183.734840707</v>
       </c>
       <c r="C4" t="n">
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>167314.8936162628</v>
+        <v>167314.8936162625</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26436,28 +26436,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="J4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987479</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987469</v>
       </c>
       <c r="L4" t="n">
+        <v>18547.94754987479</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18547.94754987469</v>
+      </c>
+      <c r="N4" t="n">
         <v>18547.94754987473</v>
       </c>
-      <c r="M4" t="n">
-        <v>18547.94754987466</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18547.94754987467</v>
-      </c>
       <c r="O4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987473</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987474</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62035.08532495997</v>
+        <v>62035.08532495965</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-883483.3913514937</v>
+        <v>-883912.9502180787</v>
       </c>
       <c r="C6" t="n">
-        <v>-327469.6541959373</v>
+        <v>-327469.6541959416</v>
       </c>
       <c r="D6" t="n">
-        <v>-544238.1564321176</v>
+        <v>-544238.1564321188</v>
       </c>
       <c r="E6" t="n">
-        <v>-713122.8256849534</v>
+        <v>-713157.563610388</v>
       </c>
       <c r="F6" t="n">
-        <v>-111679.6181106883</v>
+        <v>-111714.356036124</v>
       </c>
       <c r="G6" t="n">
-        <v>-111679.6181106883</v>
+        <v>-111714.356036124</v>
       </c>
       <c r="H6" t="n">
-        <v>-111679.6181106883</v>
+        <v>-111714.356036124</v>
       </c>
       <c r="I6" t="n">
-        <v>-111679.6181106884</v>
+        <v>-111714.3560361241</v>
       </c>
       <c r="J6" t="n">
-        <v>-206808.7277559347</v>
+        <v>-206808.7277559337</v>
       </c>
       <c r="K6" t="n">
-        <v>-124987.8464836269</v>
+        <v>-124987.846483628</v>
       </c>
       <c r="L6" t="n">
-        <v>-192172.8703131103</v>
+        <v>-192172.8703131105</v>
       </c>
       <c r="M6" t="n">
-        <v>-278858.4439553881</v>
+        <v>-278858.4439553879</v>
       </c>
       <c r="N6" t="n">
         <v>-121712.0634037901</v>
       </c>
       <c r="O6" t="n">
-        <v>-141139.7813974218</v>
+        <v>-141139.7813974219</v>
       </c>
       <c r="P6" t="n">
         <v>-121712.0634037901</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.0983748220407</v>
+        <v>603.0983748220372</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.094943624083593e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>603.0983748220407</v>
+        <v>603.0983748220372</v>
       </c>
       <c r="C3" t="n">
-        <v>10.95663894743757</v>
+        <v>10.95663894744087</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682059</v>
+        <v>239.6556507682071</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="C4" t="n">
-        <v>12.72801233967238</v>
+        <v>12.72801233967638</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246572</v>
+        <v>278.4010767246583</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>250.985867661834</v>
+        <v>250.9858676618295</v>
       </c>
       <c r="K4" t="n">
-        <v>12.72801233967238</v>
+        <v>12.72801233967684</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246572</v>
+        <v>278.4010767246577</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734853</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>250.9858676618338</v>
+        <v>250.9858676618297</v>
       </c>
       <c r="K4" t="n">
-        <v>12.72801233967238</v>
+        <v>12.72801233967638</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246572</v>
+        <v>278.4010767246583</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>131.5358758088974</v>
+        <v>4.168152075563512</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>11.2044533556019</v>
+        <v>117.004733408289</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.4825304253033</v>
       </c>
       <c r="U2" t="n">
         <v>251.1516916214616</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.0462866966123</v>
       </c>
       <c r="H3" t="n">
-        <v>99.70692894066501</v>
+        <v>99.70692894066508</v>
       </c>
       <c r="I3" t="n">
-        <v>44.73321547072621</v>
+        <v>44.73321547072647</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>19.61575307735293</v>
       </c>
       <c r="S3" t="n">
-        <v>147.5876841475044</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8560379713302</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7091154990858399</v>
+        <v>0.7091154990899042</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>51.11259933937401</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9034249120584</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.5578247930797</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7447466664171</v>
+        <v>122.7447466664173</v>
       </c>
       <c r="J4" t="n">
-        <v>16.46908075616442</v>
+        <v>16.46908075616487</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.0634900937944</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>35.27384054303531</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>105.347190098797</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>356.2512337886463</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>255.3852744282283</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590693</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>47.36781040884802</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.53091770879351</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81113036005094</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117139</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.88720627524</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>158.5449581562719</v>
+        <v>38.6305095439709</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>137.6713744519662</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>88.76299597128477</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046386</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>69.24673011189867</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>217.6533588248208</v>
       </c>
     </row>
     <row r="11">
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.424516079686594</v>
+        <v>2.42451607968658</v>
       </c>
       <c r="H2" t="n">
-        <v>24.83007530109034</v>
+        <v>24.83007530109019</v>
       </c>
       <c r="I2" t="n">
-        <v>93.4711561621175</v>
+        <v>93.47115616211696</v>
       </c>
       <c r="J2" t="n">
-        <v>205.7777716183002</v>
+        <v>205.777771618299</v>
       </c>
       <c r="K2" t="n">
-        <v>308.4075372714338</v>
+        <v>308.407537271432</v>
       </c>
       <c r="L2" t="n">
-        <v>382.6068212451425</v>
+        <v>382.6068212451403</v>
       </c>
       <c r="M2" t="n">
-        <v>425.7238090772689</v>
+        <v>425.7238090772664</v>
       </c>
       <c r="N2" t="n">
-        <v>432.6124653886785</v>
+        <v>432.612465388676</v>
       </c>
       <c r="O2" t="n">
-        <v>408.5036836212949</v>
+        <v>408.5036836212925</v>
       </c>
       <c r="P2" t="n">
-        <v>348.6484429040321</v>
+        <v>348.64844290403</v>
       </c>
       <c r="Q2" t="n">
-        <v>261.8204608002558</v>
+        <v>261.8204608002543</v>
       </c>
       <c r="R2" t="n">
-        <v>152.2990081906131</v>
+        <v>152.2990081906123</v>
       </c>
       <c r="S2" t="n">
-        <v>55.24866016585831</v>
+        <v>55.24866016585799</v>
       </c>
       <c r="T2" t="n">
-        <v>10.61331913882807</v>
+        <v>10.61331913882801</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1939612863749275</v>
+        <v>0.1939612863749264</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.297230466598352</v>
+        <v>1.297230466598344</v>
       </c>
       <c r="H3" t="n">
-        <v>12.52851529583145</v>
+        <v>12.52851529583138</v>
       </c>
       <c r="I3" t="n">
-        <v>44.66341738068887</v>
+        <v>44.66341738068861</v>
       </c>
       <c r="J3" t="n">
-        <v>122.559831056996</v>
+        <v>122.5598310569953</v>
       </c>
       <c r="K3" t="n">
-        <v>209.4742723190856</v>
+        <v>209.4742723190844</v>
       </c>
       <c r="L3" t="n">
-        <v>281.6640098638219</v>
+        <v>281.6640098638203</v>
       </c>
       <c r="M3" t="n">
-        <v>328.6886142780122</v>
+        <v>328.6886142780102</v>
       </c>
       <c r="N3" t="n">
-        <v>337.3880238544547</v>
+        <v>337.3880238544527</v>
       </c>
       <c r="O3" t="n">
-        <v>308.6441277261438</v>
+        <v>308.644127726142</v>
       </c>
       <c r="P3" t="n">
-        <v>247.7141230471888</v>
+        <v>247.7141230471873</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.5903311398177</v>
+        <v>165.5903311398167</v>
       </c>
       <c r="R3" t="n">
-        <v>80.54208107529067</v>
+        <v>80.5420810752902</v>
       </c>
       <c r="S3" t="n">
-        <v>24.0954869563334</v>
+        <v>24.09548695633326</v>
       </c>
       <c r="T3" t="n">
-        <v>5.228749117560898</v>
+        <v>5.228749117560867</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08534410964462844</v>
+        <v>0.08534410964462794</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.087554446400401</v>
+        <v>1.087554446400395</v>
       </c>
       <c r="H4" t="n">
-        <v>9.669347714359937</v>
+        <v>9.66934771435988</v>
       </c>
       <c r="I4" t="n">
-        <v>32.70572826084116</v>
+        <v>32.70572826084097</v>
       </c>
       <c r="J4" t="n">
-        <v>76.89009936050836</v>
+        <v>76.8900993605079</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3540529545193</v>
+        <v>126.3540529545186</v>
       </c>
       <c r="L4" t="n">
-        <v>161.6896856039288</v>
+        <v>161.6896856039278</v>
       </c>
       <c r="M4" t="n">
-        <v>170.4791029025647</v>
+        <v>170.4791029025637</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4254908750724</v>
+        <v>166.4254908750714</v>
       </c>
       <c r="O4" t="n">
-        <v>153.7208775693949</v>
+        <v>153.720877569394</v>
       </c>
       <c r="P4" t="n">
-        <v>131.5347668628266</v>
+        <v>131.5347668628259</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.06785459812814</v>
+        <v>91.06785459812761</v>
       </c>
       <c r="R4" t="n">
-        <v>48.90040265360348</v>
+        <v>48.90040265360319</v>
       </c>
       <c r="S4" t="n">
-        <v>18.95310794317789</v>
+        <v>18.95310794317778</v>
       </c>
       <c r="T4" t="n">
-        <v>4.646823543710804</v>
+        <v>4.646823543710776</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05932115162184013</v>
+        <v>0.05932115162183978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32555,31 +32555,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>734.2678383622667</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,31 +32792,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948339</v>
       </c>
       <c r="N24" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,31 +33029,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948339</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33269,28 +33269,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>734.2678383622667</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33506,28 +33506,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33743,28 +33743,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362267</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,37 +33971,37 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>245.8118639189585</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34454,28 +34454,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832332</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.73186709161394</v>
+        <v>24.73186709161274</v>
       </c>
       <c r="K2" t="n">
-        <v>88.31768622645325</v>
+        <v>88.31768622645149</v>
       </c>
       <c r="L2" t="n">
-        <v>146.8404062751553</v>
+        <v>146.840406275153</v>
       </c>
       <c r="M2" t="n">
-        <v>195.3775758499962</v>
+        <v>195.3775758499937</v>
       </c>
       <c r="N2" t="n">
-        <v>203.1994017920876</v>
+        <v>203.199401792085</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4054721996082</v>
+        <v>178.4054721996058</v>
       </c>
       <c r="P2" t="n">
-        <v>117.4154471487626</v>
+        <v>117.4154471487605</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.51477092580635</v>
+        <v>39.51477092580481</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>71.63283334472661</v>
+        <v>71.63283334472538</v>
       </c>
       <c r="L3" t="n">
-        <v>143.1096300839478</v>
+        <v>143.1096300839461</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5545803559938</v>
+        <v>186.5545803559919</v>
       </c>
       <c r="N3" t="n">
-        <v>206.0463117711214</v>
+        <v>206.0463117711194</v>
       </c>
       <c r="O3" t="n">
-        <v>166.0478832816993</v>
+        <v>166.0478832816975</v>
       </c>
       <c r="P3" t="n">
-        <v>113.7397156328585</v>
+        <v>113.7397156328571</v>
       </c>
       <c r="Q3" t="n">
-        <v>106.6716730391358</v>
+        <v>106.6716730391299</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>71.87713056894366</v>
+        <v>71.87713056893264</v>
       </c>
       <c r="L4" t="n">
-        <v>189.2797108642449</v>
+        <v>189.279710864244</v>
       </c>
       <c r="M4" t="n">
-        <v>210.0629798644053</v>
+        <v>210.0629798644043</v>
       </c>
       <c r="N4" t="n">
-        <v>210.557663254301</v>
+        <v>210.5576632543</v>
       </c>
       <c r="O4" t="n">
-        <v>178.3060054834346</v>
+        <v>178.3060054834337</v>
       </c>
       <c r="P4" t="n">
-        <v>128.8133261277201</v>
+        <v>128.8133261277194</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.905811346433751</v>
+        <v>4.905811346433225</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>399.0408075038495</v>
+        <v>399.0408075038504</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847781</v>
+        <v>304.4954681847785</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>13.85280893410663</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>15.48193198348422</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>156.58989002316</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>256.46845489719</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>280.9040898900914</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>279.7143300212427</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>42.74826709349607</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>592.1338044402485</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998997</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281556</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402485</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402486</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>103.6778299969401</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396434</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37865,7 +37865,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998999</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
